--- a/Input/Thai/1-4-59.xlsx
+++ b/Input/Thai/1-4-59.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="277">
   <si>
     <t xml:space="preserve">TTTT   </t>
   </si>
@@ -856,9 +856,6 @@
   </si>
   <si>
     <t>ต๊ะ</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
   <si>
     <t>PAN</t>
@@ -1502,16 +1499,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1522,6 +1516,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1535,64 +1571,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,6 +1596,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1622,16 +1625,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1942,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
@@ -1971,15 +1968,15 @@
       <c r="C1" s="53"/>
       <c r="D1" s="50"/>
       <c r="E1" s="51"/>
-      <c r="F1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="112">
+      <c r="F1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I1" s="112"/>
+        <v>42601</v>
+      </c>
+      <c r="I1" s="99"/>
       <c r="J1" s="54"/>
       <c r="K1" s="50"/>
       <c r="L1" s="51"/>
@@ -2027,23 +2024,23 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
@@ -2440,12 +2437,12 @@
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="113" t="s">
+      <c r="H15" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
       <c r="L15" s="22">
         <f>SUM(L1:L14)</f>
         <v>244358</v>
@@ -2471,14 +2468,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="114"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
@@ -2997,12 +2994,12 @@
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:13" ht="24" thickBot="1">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
       <c r="E33" s="23">
         <f>SUM(E4:E32)</f>
         <v>1895121</v>
@@ -3012,12 +3009,12 @@
         <v>1279370</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="102" t="s">
+      <c r="H33" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="104"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="97"/>
       <c r="L33" s="23">
         <f>SUM(L17:L32)</f>
         <v>1677807</v>
@@ -3033,15 +3030,15 @@
       <c r="C34" s="53"/>
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
-      <c r="F34" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="99"/>
-      <c r="H34" s="112">
+      <c r="F34" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="98"/>
+      <c r="H34" s="99">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I34" s="112"/>
+        <v>42601</v>
+      </c>
+      <c r="I34" s="99"/>
       <c r="J34" s="54"/>
       <c r="K34" s="50"/>
       <c r="L34" s="51"/>
@@ -3089,23 +3086,23 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="94"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="86"/>
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="94"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="93"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2">
@@ -3345,12 +3342,12 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="94"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="22">
         <f>SUM(E37:E43)</f>
         <v>1741596</v>
@@ -3380,14 +3377,14 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="94"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
       <c r="G45" s="5"/>
       <c r="H45" s="83">
         <v>9</v>
@@ -3798,12 +3795,12 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="104"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="23">
         <f>SUM(E46:E56)</f>
         <v>2396468</v>
@@ -3831,14 +3828,14 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="24" thickTop="1">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="103"/>
       <c r="G58" s="5"/>
       <c r="H58" s="83">
         <v>22</v>
@@ -4067,12 +4064,12 @@
       <c r="M65" s="22"/>
     </row>
     <row r="66" spans="1:13" ht="24" thickBot="1">
-      <c r="A66" s="102" t="s">
+      <c r="A66" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="103"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="104"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
       <c r="E66" s="23">
         <f>SUM(E59:E65)</f>
         <v>335923</v>
@@ -4082,12 +4079,12 @@
         <v>79720</v>
       </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="102" t="s">
+      <c r="H66" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="104"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="97"/>
       <c r="L66" s="23">
         <f>SUM(L37:L65)</f>
         <v>1236078</v>
@@ -4103,15 +4100,15 @@
       <c r="C67" s="53"/>
       <c r="D67" s="50"/>
       <c r="E67" s="51"/>
-      <c r="F67" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" s="99"/>
-      <c r="H67" s="112">
+      <c r="F67" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="98"/>
+      <c r="H67" s="99">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I67" s="112"/>
+        <v>42601</v>
+      </c>
+      <c r="I67" s="99"/>
       <c r="J67" s="54"/>
       <c r="K67" s="50"/>
       <c r="L67" s="51"/>
@@ -4159,23 +4156,23 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="94"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="93"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="92" t="s">
+      <c r="H69" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="I69" s="93"/>
-      <c r="J69" s="93"/>
-      <c r="K69" s="93"/>
-      <c r="L69" s="93"/>
-      <c r="M69" s="94"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="92"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="93"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2">
@@ -4411,12 +4408,12 @@
       <c r="M78" s="22"/>
     </row>
     <row r="79" spans="1:13" ht="24" thickBot="1">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="103"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="104"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="97"/>
       <c r="E79" s="23">
         <f>SUM(E70:E78)</f>
         <v>94988</v>
@@ -4426,12 +4423,12 @@
         <v>18800</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="102" t="s">
+      <c r="H79" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="104"/>
+      <c r="I79" s="96"/>
+      <c r="J79" s="96"/>
+      <c r="K79" s="97"/>
       <c r="L79" s="23">
         <f>SUM(L70:L78)</f>
         <v>112975</v>
@@ -4442,23 +4439,23 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="24" thickTop="1">
-      <c r="A80" s="108" t="s">
+      <c r="A80" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="109"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="109"/>
-      <c r="F80" s="110"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="103"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="108" t="s">
+      <c r="H80" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="I80" s="109"/>
-      <c r="J80" s="109"/>
-      <c r="K80" s="109"/>
-      <c r="L80" s="109"/>
-      <c r="M80" s="110"/>
+      <c r="I80" s="102"/>
+      <c r="J80" s="102"/>
+      <c r="K80" s="102"/>
+      <c r="L80" s="102"/>
+      <c r="M80" s="103"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="2">
@@ -4706,12 +4703,12 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="24" thickBot="1">
-      <c r="A88" s="101" t="s">
+      <c r="A88" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="101"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="101"/>
+      <c r="B88" s="94"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="94"/>
       <c r="E88" s="23">
         <f>SUM(E81:E87)</f>
         <v>112503</v>
@@ -4739,14 +4736,14 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="24" thickTop="1">
-      <c r="A89" s="92" t="s">
+      <c r="A89" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="93"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="94"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="93"/>
       <c r="G89" s="5"/>
       <c r="H89" s="83">
         <v>9</v>
@@ -5029,12 +5026,12 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="24" thickBot="1">
-      <c r="A99" s="101" t="s">
+      <c r="A99" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="101"/>
-      <c r="C99" s="101"/>
-      <c r="D99" s="101"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="94"/>
       <c r="E99" s="23">
         <f>SUM(E90:E98)</f>
         <v>99856</v>
@@ -5044,12 +5041,12 @@
         <v>70130</v>
       </c>
       <c r="G99" s="5"/>
-      <c r="H99" s="101" t="s">
+      <c r="H99" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="I99" s="101"/>
-      <c r="J99" s="101"/>
-      <c r="K99" s="101"/>
+      <c r="I99" s="94"/>
+      <c r="J99" s="94"/>
+      <c r="K99" s="94"/>
       <c r="L99" s="23">
         <f>SUM(L81:L98)</f>
         <v>2129331</v>
@@ -5065,15 +5062,15 @@
       <c r="C100" s="53"/>
       <c r="D100" s="50"/>
       <c r="E100" s="51"/>
-      <c r="F100" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" s="99"/>
-      <c r="H100" s="100">
+      <c r="F100" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="98"/>
+      <c r="H100" s="107">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I100" s="100"/>
+        <v>42601</v>
+      </c>
+      <c r="I100" s="107"/>
       <c r="J100" s="54"/>
       <c r="K100" s="50"/>
       <c r="L100" s="51"/>
@@ -5082,23 +5079,23 @@
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="92" t="s">
+      <c r="A101" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="93"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="94"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="93"/>
       <c r="G101" s="86"/>
-      <c r="H101" s="91" t="s">
+      <c r="H101" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="I101" s="91"/>
-      <c r="J101" s="91"/>
-      <c r="K101" s="91"/>
-      <c r="L101" s="91"/>
-      <c r="M101" s="91"/>
+      <c r="I101" s="115"/>
+      <c r="J101" s="115"/>
+      <c r="K101" s="115"/>
+      <c r="L101" s="115"/>
+      <c r="M101" s="115"/>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="20" t="s">
@@ -5107,8 +5104,8 @@
       <c r="B102" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="92"/>
-      <c r="D102" s="93"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="92"/>
       <c r="E102" s="52" t="s">
         <v>3</v>
       </c>
@@ -5122,8 +5119,8 @@
       <c r="I102" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J102" s="92"/>
-      <c r="K102" s="94"/>
+      <c r="J102" s="91"/>
+      <c r="K102" s="93"/>
       <c r="L102" s="52" t="s">
         <v>3</v>
       </c>
@@ -5151,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J103" s="22"/>
       <c r="K103" s="22"/>
@@ -5213,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
@@ -5244,7 +5241,7 @@
         <v>4</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
@@ -5398,17 +5395,11 @@
       <c r="H111" s="84">
         <v>9</v>
       </c>
-      <c r="I111" s="4" t="s">
-        <v>274</v>
-      </c>
+      <c r="I111" s="4"/>
       <c r="J111" s="22"/>
       <c r="K111" s="22"/>
-      <c r="L111" s="22">
-        <v>1625</v>
-      </c>
-      <c r="M111" s="22">
-        <v>0</v>
-      </c>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="65">
@@ -5953,12 +5944,12 @@
       <c r="M131" s="22"/>
     </row>
     <row r="132" spans="1:17" ht="24" thickBot="1">
-      <c r="A132" s="106" t="s">
+      <c r="A132" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B132" s="106"/>
-      <c r="C132" s="106"/>
-      <c r="D132" s="107"/>
+      <c r="B132" s="105"/>
+      <c r="C132" s="105"/>
+      <c r="D132" s="106"/>
       <c r="E132" s="23">
         <f>SUM(E103:E131)</f>
         <v>1878113.79</v>
@@ -5968,15 +5959,15 @@
         <v>915057</v>
       </c>
       <c r="G132" s="5"/>
-      <c r="H132" s="106" t="s">
+      <c r="H132" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="I132" s="106"/>
-      <c r="J132" s="106"/>
-      <c r="K132" s="106"/>
+      <c r="I132" s="105"/>
+      <c r="J132" s="105"/>
+      <c r="K132" s="105"/>
       <c r="L132" s="58">
         <f>SUM(L103:L131)</f>
-        <v>729266.30999999994</v>
+        <v>727641.30999999994</v>
       </c>
       <c r="M132" s="58">
         <f>SUM(M103:M131)</f>
@@ -5989,36 +5980,36 @@
       <c r="C133" s="53"/>
       <c r="D133" s="50"/>
       <c r="E133" s="51"/>
-      <c r="F133" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G133" s="99"/>
-      <c r="H133" s="105" t="s">
+      <c r="F133" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="98"/>
+      <c r="H133" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="I133" s="105"/>
-      <c r="J133" s="105"/>
-      <c r="K133" s="105"/>
-      <c r="L133" s="105"/>
-      <c r="M133" s="105"/>
+      <c r="I133" s="104"/>
+      <c r="J133" s="104"/>
+      <c r="K133" s="104"/>
+      <c r="L133" s="104"/>
+      <c r="M133" s="104"/>
     </row>
     <row r="134" spans="1:17">
-      <c r="A134" s="91" t="s">
+      <c r="A134" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="B134" s="91"/>
-      <c r="C134" s="91"/>
-      <c r="D134" s="91"/>
-      <c r="E134" s="91"/>
-      <c r="F134" s="91"/>
-      <c r="H134" s="91" t="s">
+      <c r="B134" s="115"/>
+      <c r="C134" s="115"/>
+      <c r="D134" s="115"/>
+      <c r="E134" s="115"/>
+      <c r="F134" s="115"/>
+      <c r="H134" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="I134" s="91"/>
-      <c r="J134" s="91"/>
-      <c r="K134" s="91"/>
-      <c r="L134" s="91"/>
-      <c r="M134" s="91"/>
+      <c r="I134" s="115"/>
+      <c r="J134" s="115"/>
+      <c r="K134" s="115"/>
+      <c r="L134" s="115"/>
+      <c r="M134" s="115"/>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="2" t="s">
@@ -6209,8 +6200,8 @@
       </c>
       <c r="H141" s="86"/>
       <c r="I141" s="5"/>
-      <c r="J141" s="111"/>
-      <c r="K141" s="111"/>
+      <c r="J141" s="100"/>
+      <c r="K141" s="100"/>
       <c r="L141" s="25"/>
       <c r="M141" s="25"/>
     </row>
@@ -6356,12 +6347,12 @@
       <c r="F150" s="22"/>
     </row>
     <row r="151" spans="1:13" ht="24" thickBot="1">
-      <c r="A151" s="102" t="s">
+      <c r="A151" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B151" s="103"/>
-      <c r="C151" s="103"/>
-      <c r="D151" s="104"/>
+      <c r="B151" s="96"/>
+      <c r="C151" s="96"/>
+      <c r="D151" s="97"/>
       <c r="E151" s="23">
         <f>SUM(E136:E150)</f>
         <v>1221351</v>
@@ -6374,15 +6365,15 @@
     <row r="152" spans="1:13" ht="24" thickTop="1"/>
     <row r="167" spans="1:13" ht="29.25">
       <c r="E167" s="1"/>
-      <c r="F167" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G167" s="99"/>
-      <c r="H167" s="100">
+      <c r="F167" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167" s="98"/>
+      <c r="H167" s="107">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I167" s="100"/>
+        <v>42601</v>
+      </c>
+      <c r="I167" s="107"/>
       <c r="L167" s="1"/>
       <c r="M167" s="8" t="s">
         <v>208</v>
@@ -6394,12 +6385,12 @@
       <c r="M168" s="1"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="95" t="s">
+      <c r="A169" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B169" s="95"/>
-      <c r="C169" s="95"/>
-      <c r="D169" s="95"/>
+      <c r="B169" s="108"/>
+      <c r="C169" s="108"/>
+      <c r="D169" s="108"/>
       <c r="E169" s="31">
         <f>E33</f>
         <v>1895121</v>
@@ -6409,12 +6400,12 @@
         <v>1279370</v>
       </c>
       <c r="G169" s="27"/>
-      <c r="H169" s="95" t="s">
+      <c r="H169" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="I169" s="95"/>
-      <c r="J169" s="95"/>
-      <c r="K169" s="95"/>
+      <c r="I169" s="108"/>
+      <c r="J169" s="108"/>
+      <c r="K169" s="108"/>
       <c r="L169" s="31">
         <f>L15+L33</f>
         <v>1922165</v>
@@ -6425,12 +6416,12 @@
       </c>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="95" t="s">
+      <c r="A170" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="B170" s="95"/>
-      <c r="C170" s="95"/>
-      <c r="D170" s="95"/>
+      <c r="B170" s="108"/>
+      <c r="C170" s="108"/>
+      <c r="D170" s="108"/>
       <c r="E170" s="31">
         <f>E44+E57+E66</f>
         <v>4473987</v>
@@ -6440,12 +6431,12 @@
         <v>3290720</v>
       </c>
       <c r="G170" s="27"/>
-      <c r="H170" s="95" t="s">
+      <c r="H170" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="I170" s="95"/>
-      <c r="J170" s="95"/>
-      <c r="K170" s="95"/>
+      <c r="I170" s="108"/>
+      <c r="J170" s="108"/>
+      <c r="K170" s="108"/>
       <c r="L170" s="31">
         <f>L66</f>
         <v>1236078</v>
@@ -6456,12 +6447,12 @@
       </c>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="95" t="s">
+      <c r="A171" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="B171" s="95"/>
-      <c r="C171" s="95"/>
-      <c r="D171" s="95"/>
+      <c r="B171" s="108"/>
+      <c r="C171" s="108"/>
+      <c r="D171" s="108"/>
       <c r="E171" s="31">
         <f>E79+E88+E99</f>
         <v>307347</v>
@@ -6471,12 +6462,12 @@
         <v>922430</v>
       </c>
       <c r="G171" s="27"/>
-      <c r="H171" s="95" t="s">
+      <c r="H171" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="I171" s="95"/>
-      <c r="J171" s="95"/>
-      <c r="K171" s="95"/>
+      <c r="I171" s="108"/>
+      <c r="J171" s="108"/>
+      <c r="K171" s="108"/>
       <c r="L171" s="31">
         <f>L79+L99</f>
         <v>2242306</v>
@@ -6487,12 +6478,12 @@
       </c>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="95" t="s">
+      <c r="A172" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="B172" s="95"/>
-      <c r="C172" s="95"/>
-      <c r="D172" s="95"/>
+      <c r="B172" s="108"/>
+      <c r="C172" s="108"/>
+      <c r="D172" s="108"/>
       <c r="E172" s="31">
         <f>E132</f>
         <v>1878113.79</v>
@@ -6502,15 +6493,15 @@
         <v>915057</v>
       </c>
       <c r="G172" s="27"/>
-      <c r="H172" s="95" t="s">
+      <c r="H172" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="I172" s="95"/>
-      <c r="J172" s="95"/>
-      <c r="K172" s="95"/>
+      <c r="I172" s="108"/>
+      <c r="J172" s="108"/>
+      <c r="K172" s="108"/>
       <c r="L172" s="31">
         <f>L132</f>
-        <v>729266.30999999994</v>
+        <v>727641.30999999994</v>
       </c>
       <c r="M172" s="31">
         <f>M132</f>
@@ -6533,12 +6524,12 @@
       <c r="M173" s="29"/>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="96" t="s">
+      <c r="A174" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="B174" s="97"/>
-      <c r="C174" s="97"/>
-      <c r="D174" s="98"/>
+      <c r="B174" s="110"/>
+      <c r="C174" s="110"/>
+      <c r="D174" s="111"/>
       <c r="E174" s="30">
         <f>SUM(E169:E172)</f>
         <v>8554568.7899999991</v>
@@ -6548,15 +6539,15 @@
         <v>6407577</v>
       </c>
       <c r="G174" s="56"/>
-      <c r="H174" s="96" t="s">
+      <c r="H174" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="I174" s="97"/>
-      <c r="J174" s="97"/>
-      <c r="K174" s="98"/>
+      <c r="I174" s="110"/>
+      <c r="J174" s="110"/>
+      <c r="K174" s="111"/>
       <c r="L174" s="31">
         <f>SUM(L169:L172)</f>
-        <v>6129815.3099999996</v>
+        <v>6128190.3099999996</v>
       </c>
       <c r="M174" s="31">
         <f>SUM(M169:M172)</f>
@@ -6639,7 +6630,7 @@
       <c r="K179" s="42"/>
       <c r="L179" s="42">
         <f>E174+L174</f>
-        <v>14684384.099999998</v>
+        <v>14682759.099999998</v>
       </c>
       <c r="M179" s="43"/>
     </row>
@@ -6699,7 +6690,7 @@
       <c r="K182" s="57"/>
       <c r="L182" s="57">
         <f>L179-L180-(L181)</f>
-        <v>4486755.0999999978</v>
+        <v>4485130.0999999978</v>
       </c>
       <c r="M182" s="43"/>
     </row>
@@ -6757,7 +6748,7 @@
       <c r="K188" s="5"/>
       <c r="L188" s="25">
         <f>L182+L186+L187</f>
-        <v>4564233.0999999978</v>
+        <v>4562608.0999999978</v>
       </c>
       <c r="M188" s="73"/>
     </row>
@@ -6770,13 +6761,38 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="H101:M101"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="H80:M80"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="H174:K174"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="H170:K170"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="H133:M133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="H134:M134"/>
+    <mergeCell ref="A134:F134"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="J141:K141"/>
     <mergeCell ref="F1:G1"/>
@@ -6793,39 +6809,14 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="H133:M133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="H169:K169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="H170:K170"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="H171:K171"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="H174:K174"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
     <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H134:M134"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="H101:M101"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="H80:M80"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="J102:K102"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.21" top="0.21" bottom="0.24" header="0.3" footer="0.24"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6871,15 +6862,15 @@
       <c r="C1" s="9"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="117"/>
-      <c r="H1" s="131">
+      <c r="F1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I1" s="131"/>
+        <v>42601</v>
+      </c>
+      <c r="I1" s="117"/>
       <c r="J1" s="15"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -6927,23 +6918,23 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="128" t="s">
+      <c r="H3" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="130"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
@@ -7302,12 +7293,12 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="119" t="s">
+      <c r="H19" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="121"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="120"/>
       <c r="L19" s="14">
         <f>SUM(L4:L15)</f>
         <v>0</v>
@@ -7329,14 +7320,14 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="125" t="s">
+      <c r="H20" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
@@ -7599,12 +7590,12 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="24" thickBot="1">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="120"/>
       <c r="E33" s="14">
         <f>SUM(E4:E32)</f>
         <v>0</v>
@@ -7614,12 +7605,12 @@
         <v>0</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="119" t="s">
+      <c r="H33" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="121"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="120"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
@@ -7629,15 +7620,15 @@
       <c r="C34" s="9"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="117"/>
-      <c r="H34" s="131">
+      <c r="F34" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="116"/>
+      <c r="H34" s="117">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I34" s="131"/>
+        <v>42601</v>
+      </c>
+      <c r="I34" s="117"/>
       <c r="J34" s="15"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -7685,23 +7676,23 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="130"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="123"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="128" t="s">
+      <c r="H36" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="130"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="123"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2">
@@ -7869,12 +7860,12 @@
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="128" t="s">
+      <c r="A44" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="130"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="123"/>
       <c r="E44" s="4">
         <f>SUM(E37:E43)</f>
         <v>0</v>
@@ -7896,14 +7887,14 @@
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="128" t="s">
+      <c r="A45" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="130"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="123"/>
       <c r="G45" s="5"/>
       <c r="H45" s="2">
         <v>9</v>
@@ -8064,12 +8055,12 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="119" t="s">
+      <c r="H52" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="121"/>
+      <c r="I52" s="119"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="120"/>
       <c r="L52" s="14">
         <f>SUM(L37:L51)</f>
         <v>0</v>
@@ -8091,14 +8082,14 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="122" t="s">
+      <c r="H53" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I53" s="123"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="123"/>
-      <c r="L53" s="123"/>
-      <c r="M53" s="124"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="126"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2">
@@ -8122,12 +8113,12 @@
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" ht="24" thickBot="1">
-      <c r="A55" s="119" t="s">
+      <c r="A55" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="120"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="5"/>
@@ -8145,14 +8136,14 @@
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" ht="24" thickTop="1">
-      <c r="A56" s="122" t="s">
+      <c r="A56" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="124"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="126"/>
       <c r="G56" s="5"/>
       <c r="H56" s="2">
         <v>3</v>
@@ -8391,12 +8382,12 @@
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" ht="24" thickBot="1">
-      <c r="A66" s="119" t="s">
+      <c r="A66" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="121"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="120"/>
       <c r="E66" s="14">
         <f>SUM(E57:E65)</f>
         <v>0</v>
@@ -8406,12 +8397,12 @@
         <v>0</v>
       </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="119" t="s">
+      <c r="H66" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="I66" s="120"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="121"/>
+      <c r="I66" s="119"/>
+      <c r="J66" s="119"/>
+      <c r="K66" s="120"/>
       <c r="L66" s="14">
         <f>SUM(L54:L65)</f>
         <v>0</v>
@@ -8427,15 +8418,15 @@
       <c r="C67" s="9"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" s="117"/>
-      <c r="H67" s="131">
+      <c r="F67" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="116"/>
+      <c r="H67" s="117">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I67" s="131"/>
+        <v>42601</v>
+      </c>
+      <c r="I67" s="117"/>
       <c r="J67" s="15"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -8483,23 +8474,23 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="128" t="s">
+      <c r="A69" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="129"/>
-      <c r="C69" s="129"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="130"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="123"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="128" t="s">
+      <c r="H69" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="I69" s="129"/>
-      <c r="J69" s="129"/>
-      <c r="K69" s="129"/>
-      <c r="L69" s="129"/>
-      <c r="M69" s="130"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="122"/>
+      <c r="M69" s="123"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2">
@@ -8655,12 +8646,12 @@
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="128" t="s">
+      <c r="A77" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="129"/>
-      <c r="C77" s="129"/>
-      <c r="D77" s="130"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="4">
         <f>SUM(E70:E76)</f>
         <v>0</v>
@@ -8670,12 +8661,12 @@
         <v>0</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="128" t="s">
+      <c r="H77" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="I77" s="129"/>
-      <c r="J77" s="129"/>
-      <c r="K77" s="130"/>
+      <c r="I77" s="122"/>
+      <c r="J77" s="122"/>
+      <c r="K77" s="123"/>
       <c r="L77" s="4">
         <f>SUM(L70:L76)</f>
         <v>0</v>
@@ -8686,23 +8677,23 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="128" t="s">
+      <c r="A78" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="129"/>
-      <c r="C78" s="129"/>
-      <c r="D78" s="129"/>
-      <c r="E78" s="129"/>
-      <c r="F78" s="130"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="123"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="128" t="s">
+      <c r="H78" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="I78" s="129"/>
-      <c r="J78" s="129"/>
-      <c r="K78" s="129"/>
-      <c r="L78" s="129"/>
-      <c r="M78" s="130"/>
+      <c r="I78" s="122"/>
+      <c r="J78" s="122"/>
+      <c r="K78" s="122"/>
+      <c r="L78" s="122"/>
+      <c r="M78" s="123"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2">
@@ -8904,12 +8895,12 @@
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="1:13" ht="24" thickBot="1">
-      <c r="A88" s="119" t="s">
+      <c r="A88" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="120"/>
-      <c r="C88" s="120"/>
-      <c r="D88" s="121"/>
+      <c r="B88" s="119"/>
+      <c r="C88" s="119"/>
+      <c r="D88" s="120"/>
       <c r="E88" s="14">
         <f>SUM(E79:E87)</f>
         <v>0</v>
@@ -8919,12 +8910,12 @@
         <v>0</v>
       </c>
       <c r="G88" s="5"/>
-      <c r="H88" s="119" t="s">
+      <c r="H88" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="I88" s="120"/>
-      <c r="J88" s="120"/>
-      <c r="K88" s="121"/>
+      <c r="I88" s="119"/>
+      <c r="J88" s="119"/>
+      <c r="K88" s="120"/>
       <c r="L88" s="14">
         <f>SUM(L79:L86)</f>
         <v>0</v>
@@ -8935,23 +8926,23 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="24" thickTop="1">
-      <c r="A89" s="125" t="s">
+      <c r="A89" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="126"/>
-      <c r="C89" s="126"/>
-      <c r="D89" s="126"/>
-      <c r="E89" s="126"/>
-      <c r="F89" s="127"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="129"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="122" t="s">
+      <c r="H89" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="123"/>
-      <c r="J89" s="123"/>
-      <c r="K89" s="123"/>
-      <c r="L89" s="123"/>
-      <c r="M89" s="124"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="125"/>
+      <c r="L89" s="125"/>
+      <c r="M89" s="126"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="2">
@@ -9157,12 +9148,12 @@
       <c r="M98" s="4"/>
     </row>
     <row r="99" spans="1:13" ht="24" thickBot="1">
-      <c r="A99" s="119" t="s">
+      <c r="A99" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="120"/>
-      <c r="C99" s="120"/>
-      <c r="D99" s="121"/>
+      <c r="B99" s="119"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="120"/>
       <c r="E99" s="14">
         <f>SUM(E90:E98)</f>
         <v>0</v>
@@ -9172,12 +9163,12 @@
         <v>0</v>
       </c>
       <c r="G99" s="5"/>
-      <c r="H99" s="119" t="s">
+      <c r="H99" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="I99" s="120"/>
-      <c r="J99" s="120"/>
-      <c r="K99" s="121"/>
+      <c r="I99" s="119"/>
+      <c r="J99" s="119"/>
+      <c r="K99" s="120"/>
       <c r="L99" s="14">
         <f>SUM(L90:L98)</f>
         <v>0</v>
@@ -9194,15 +9185,15 @@
       <c r="C101" s="9"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="117"/>
-      <c r="H101" s="118">
+      <c r="F101" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="116"/>
+      <c r="H101" s="131">
         <f ca="1">TODAY()</f>
-        <v>42462</v>
-      </c>
-      <c r="I101" s="118"/>
+        <v>42601</v>
+      </c>
+      <c r="I101" s="131"/>
       <c r="J101" s="15"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
@@ -9211,14 +9202,14 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="116" t="s">
+      <c r="A102" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="116"/>
-      <c r="C102" s="116"/>
-      <c r="D102" s="116"/>
-      <c r="E102" s="116"/>
-      <c r="F102" s="116"/>
+      <c r="B102" s="130"/>
+      <c r="C102" s="130"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="130"/>
       <c r="H102" s="3"/>
       <c r="I102" s="5"/>
     </row>
@@ -9415,12 +9406,12 @@
       <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6" ht="24" thickBot="1">
-      <c r="A119" s="119" t="s">
+      <c r="A119" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B119" s="120"/>
-      <c r="C119" s="120"/>
-      <c r="D119" s="121"/>
+      <c r="B119" s="119"/>
+      <c r="C119" s="119"/>
+      <c r="D119" s="120"/>
       <c r="E119" s="14">
         <f>SUM(E104:E118)</f>
         <v>0</v>
@@ -9433,6 +9424,32 @@
     <row r="120" spans="1:6" ht="24" thickTop="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="H78:M78"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H20:M20"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="H66:K66"/>
@@ -9445,32 +9462,6 @@
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:F56"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="H78:M78"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="H89:M89"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A89:F89"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.21" top="0.21" bottom="0.24" header="0.3" footer="0.24"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
